--- a/Source/Website/DesktopModules/Modules/MarketingCampaign/Assets/Template/TemplateCTDHMuaHeRucNang.xlsx
+++ b/Source/Website/DesktopModules/Modules/MarketingCampaign/Assets/Template/TemplateCTDHMuaHeRucNang.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VietBank\VietbankPortal\Source\Website\DesktopModules\Modules\MarketingCampaign\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nptan2005/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="803" windowWidth="33600" windowHeight="19778"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19660"/>
   </bookViews>
   <sheets>
     <sheet name="Tong diem" sheetId="17" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +32,7 @@
     <author>Nguyen Phuoc Tan</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,11 +51,11 @@
           </rPr>
           <t xml:space="preserve">
 Loại báo cáo
- 'W': Tuần; 'M': Tháng; 'Y': Year</t>
+ 'W': Tuần; 'M': Tháng; 'Y': Year; 'K': Kỳ</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,11 +184,58 @@
             <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">
-Số dư huy động</t>
+Số dư huy động theo kế hoạch
+Lưu ý: số tiền format 2 số thập phân
+- Số thập phân dấu chấm (.)
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Nguyen Phuoc Tan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Số dư huy động theo thực tế</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Nguyen Phuoc Tan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Tiến độ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>BranchName</t>
   </si>
@@ -259,39 +309,45 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>BalanceTarget</t>
+  </si>
+  <si>
+    <t>BalanceReality</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,16 +388,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -647,25 +705,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3828125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.61328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.765625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9" style="4"/>
+    <col min="1" max="1" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="8"/>
+    <col min="10" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -684,22 +744,28 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -708,24 +774,30 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="H2" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I2" s="7">
+        <v>100</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -734,24 +806,30 @@
         <v>6</v>
       </c>
       <c r="F3" s="1">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H3" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I3" s="7">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="J3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -762,22 +840,28 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="G4" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1000000000000.46</v>
+      </c>
+      <c r="I4" s="7">
+        <v>88.91</v>
+      </c>
+      <c r="J4" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -788,22 +872,28 @@
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H5" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I5" s="7">
+        <v>99.33</v>
+      </c>
+      <c r="J5" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -814,22 +904,28 @@
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H6" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I6" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J6" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -840,22 +936,28 @@
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="G7" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H7" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I7" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J7" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -866,22 +968,28 @@
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="G8" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H8" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I8" s="7">
+        <v>93.88</v>
+      </c>
+      <c r="J8" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>8</v>
@@ -892,22 +1000,28 @@
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H9" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I9" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J9" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>9</v>
@@ -918,10 +1032,208 @@
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10" s="4">
-        <v>1E+17</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H10" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I10" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H11" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I11" s="7">
+        <v>99.88</v>
+      </c>
+      <c r="J11" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I12" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J12" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H13" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I13" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H14" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I14" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J14" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H15" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I15" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J15" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8">
+        <v>25325235235789</v>
+      </c>
+      <c r="H16" s="8">
+        <v>100084320923.46899</v>
+      </c>
+      <c r="I16" s="7">
+        <v>91.88</v>
+      </c>
+      <c r="J16" s="5">
         <v>9</v>
       </c>
     </row>
